--- a/biology/Médecine/Verre_photochromique/Verre_photochromique.xlsx
+++ b/biology/Médecine/Verre_photochromique/Verre_photochromique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le verre photochromique est un verre correcteur qui a la propriété de se teinter en fonction de la quantité d'ultraviolet (UV) à laquelle il est soumis. Quand l'exposition aux UV disparait, les lentilles optiques retrouvent graduellement leur état clair.
 Les verres photochromiques sont fabriqués, soit avec du verre minéral, soit à partir de plastique thermodurcisseur (appelé organique) ou thermoplastique (appelé polycarbonate).
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forme minérale du verre photochromique a été développée par la société Corning dans les années 1960. Les versions organiques ont commencé à être commercialisées dans les années 1980 par American Optical puis en 1991 par Transitions Optical[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forme minérale du verre photochromique a été développée par la société Corning dans les années 1960. Les versions organiques ont commencé à être commercialisées dans les années 1980 par American Optical puis en 1991 par Transitions Optical.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Verre minéral : ces verres photochromiques intègrent habituellement dans leur structure un composé d'halogénure d'argent (chlorure d'argent, bromure d'argent...). Sous exposition aux UV, les liaisons argent - halogénure se cassent et les atomes d'argent s'associent entre eux ce qui assombrit le verre. Les liaisons argent - halogénure se reconstituent dès l'arrêt de l'exposition aux UV, redonnant sa clarté au verre.
 Verre organique : ces verres photochromiques sont habituellement recouverts d'une couche d'oxazines. Les liaisons dans les molécules se cassent sous l'effet de l'UV et le verre s'assombrit. Les liaisons se reconstituent quand l'UV a disparu ce qui rend la clarté au verre.
 L'utilisation en voiture ne permet pas d'obtenir un assombrissement car les pare-brises filtrent les UV.
-Il existe également des lentilles de contact photochromiques[2].
+Il existe également des lentilles de contact photochromiques.
 </t>
         </is>
       </c>
